--- a/BackTest/2020-01-11 BackTest DAC.xlsx
+++ b/BackTest/2020-01-11 BackTest DAC.xlsx
@@ -4371,14 +4371,20 @@
         <v>2.076033333333338</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4412,12 +4418,12 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2.054</v>
+        <v>2.041</v>
       </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -4453,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.055</v>
+        <v>2.044</v>
       </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
@@ -4494,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.046</v>
+        <v>2.053</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
@@ -4576,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.045</v>
+        <v>2.042</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
@@ -4617,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.041</v>
+        <v>2.042</v>
       </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
@@ -4652,14 +4658,12 @@
         <v>2.070416666666671</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>2.047</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -4693,14 +4697,12 @@
         <v>2.069716666666671</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>2.047</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -4734,14 +4736,12 @@
         <v>2.068933333333338</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>2.041</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -4775,14 +4775,12 @@
         <v>2.068183333333338</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>2.041</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -4816,14 +4814,12 @@
         <v>2.067400000000005</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>2.041</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -4857,14 +4853,12 @@
         <v>2.066816666666671</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -4898,14 +4892,12 @@
         <v>2.066000000000005</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -4939,14 +4931,12 @@
         <v>2.065250000000005</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>2.045</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -4980,14 +4970,12 @@
         <v>2.064350000000005</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>2.042</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -5021,14 +5009,12 @@
         <v>2.063566666666671</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>2.041</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5062,14 +5048,12 @@
         <v>2.062833333333338</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>2.046</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5103,14 +5087,12 @@
         <v>2.062100000000005</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5144,14 +5126,12 @@
         <v>2.061366666666672</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>2.042</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5185,14 +5165,12 @@
         <v>2.060616666666672</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5226,14 +5204,12 @@
         <v>2.059916666666672</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>2.042</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5267,14 +5243,12 @@
         <v>2.059466666666672</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>2.043</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5308,14 +5282,12 @@
         <v>2.058866666666672</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5349,14 +5321,12 @@
         <v>2.058466666666672</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>2.043</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5390,14 +5360,12 @@
         <v>2.058050000000005</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>2.042</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5431,14 +5399,12 @@
         <v>2.057566666666672</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>2.046</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5472,14 +5438,12 @@
         <v>2.056133333333339</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>2.045</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5513,14 +5477,12 @@
         <v>2.054816666666672</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>2.045</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5554,14 +5516,12 @@
         <v>2.052933333333339</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>2.045</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5595,14 +5555,12 @@
         <v>2.051433333333339</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>2.046</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5636,14 +5594,12 @@
         <v>2.050783333333339</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5677,14 +5633,12 @@
         <v>2.049616666666672</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>2.046</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5718,14 +5672,12 @@
         <v>2.049050000000006</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>2.046</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5759,14 +5711,12 @@
         <v>2.048633333333339</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>2.046</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5800,14 +5750,12 @@
         <v>2.048266666666672</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5841,14 +5789,12 @@
         <v>2.047883333333339</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>2.046</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5882,14 +5828,12 @@
         <v>2.047533333333339</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>2.047</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5923,14 +5867,12 @@
         <v>2.047366666666673</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>2.047</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5964,14 +5906,12 @@
         <v>2.047416666666673</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6005,14 +5945,12 @@
         <v>2.047433333333339</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6046,14 +5984,12 @@
         <v>2.047433333333339</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6087,14 +6023,12 @@
         <v>2.047333333333339</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>2.047</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6128,14 +6062,12 @@
         <v>2.047016666666673</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6169,14 +6101,12 @@
         <v>2.046900000000006</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>2.049</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6210,14 +6140,12 @@
         <v>2.046866666666673</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>2.051</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6251,14 +6179,12 @@
         <v>2.046633333333339</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>2.053</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6292,14 +6218,12 @@
         <v>2.046583333333339</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>2.051</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6333,14 +6257,12 @@
         <v>2.046266666666673</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6374,14 +6296,12 @@
         <v>2.046216666666673</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6415,14 +6335,12 @@
         <v>2.046200000000006</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6456,14 +6374,12 @@
         <v>2.046266666666673</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6497,14 +6413,12 @@
         <v>2.046266666666673</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6538,14 +6452,12 @@
         <v>2.046200000000006</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6579,14 +6491,12 @@
         <v>2.046100000000006</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6620,14 +6530,12 @@
         <v>2.045950000000006</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6661,14 +6569,12 @@
         <v>2.045950000000006</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6702,14 +6608,12 @@
         <v>2.045816666666673</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6743,14 +6647,12 @@
         <v>2.045933333333339</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6784,14 +6686,12 @@
         <v>2.04603333333334</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -6825,14 +6725,12 @@
         <v>2.046150000000006</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -6866,14 +6764,12 @@
         <v>2.046216666666673</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -6907,14 +6803,12 @@
         <v>2.04613333333334</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -6948,14 +6842,12 @@
         <v>2.04623333333334</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -6989,14 +6881,12 @@
         <v>2.04633333333334</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>2.048</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -7030,14 +6920,12 @@
         <v>2.04658333333334</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>2.054</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -7071,14 +6959,12 @@
         <v>2.047066666666673</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>2.062</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -7112,14 +6998,12 @@
         <v>2.047416666666673</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>2.07</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -7153,14 +7037,12 @@
         <v>2.047650000000006</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>2.061</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -7194,14 +7076,12 @@
         <v>2.047950000000006</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>2.057</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -7235,14 +7115,12 @@
         <v>2.048183333333339</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>2.052</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -7276,14 +7154,12 @@
         <v>2.048416666666673</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>2.059</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -7317,14 +7193,12 @@
         <v>2.048566666666673</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>2.059</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -7358,14 +7232,12 @@
         <v>2.048600000000006</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>2.06</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -7399,14 +7271,12 @@
         <v>2.048883333333339</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>2.051</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
@@ -7440,14 +7310,12 @@
         <v>2.049000000000006</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>2.052</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -7481,14 +7349,12 @@
         <v>2.04928333333334</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>2.051</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7522,14 +7388,12 @@
         <v>2.049433333333339</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>2.055</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7563,14 +7427,12 @@
         <v>2.049600000000006</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>2.06</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7604,14 +7466,12 @@
         <v>2.050016666666673</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>2.052</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -7645,14 +7505,12 @@
         <v>2.05048333333334</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>2.071</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7686,14 +7544,12 @@
         <v>2.050850000000006</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>2.064</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7727,14 +7583,12 @@
         <v>2.051150000000006</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>2.063</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -7768,14 +7622,12 @@
         <v>2.051416666666673</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>2.063</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -7809,14 +7661,12 @@
         <v>2.051833333333339</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>2.058</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -7850,14 +7700,12 @@
         <v>2.052183333333339</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>2.054</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -7891,14 +7739,12 @@
         <v>2.052450000000006</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>2.06</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -7932,14 +7778,12 @@
         <v>2.052850000000006</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>2.061</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -7973,14 +7817,12 @@
         <v>2.053216666666672</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>2.067</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -15425,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
@@ -15460,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest DAC.xlsx
+++ b/BackTest/2020-01-11 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1295533.7074</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1673938.4296</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1669190.4296</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1668940.4296</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1668708.4296</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1673003.2096</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1672753.2096</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1672503.2096</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1666253.2096</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1672953.2096</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1672703.2096</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1761133.8759</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1761133.8759</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1761133.8759</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1761133.8759</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1761133.8759</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1767133.8759</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1990627.402</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2661107.9806</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2859331.5818</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2877843.5818</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2877607.5818</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2878854.6338</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2872854.6338</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2881854.6338</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2881854.6338</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2881618.6338</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -5269,11 +5269,17 @@
         <v>-6296902.393499997</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2.071</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5308,17 @@
         <v>-6260459.348799996</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2.067</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5347,17 @@
         <v>-6307579.298399996</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2.069</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5386,17 @@
         <v>-7441829.606199997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2.068</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5425,17 @@
         <v>-7611515.633499997</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2.057</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5464,17 @@
         <v>-7534360.260499997</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5503,17 @@
         <v>-7146896.358699997</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2.048</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5542,17 @@
         <v>-7004673.806399997</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2.049</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5581,17 @@
         <v>-6754141.941399997</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2.056</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5620,17 @@
         <v>-6795338.589399997</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2.068</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5659,17 @@
         <v>-6848128.020499997</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2.055</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5698,17 @@
         <v>-6805792.376899997</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2.052</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5737,17 @@
         <v>-6844570.854499997</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2.065</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5776,17 @@
         <v>-6785554.054299996</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2.056</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5815,17 @@
         <v>-6810022.726099996</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2.07</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5854,17 @@
         <v>-6880138.288499996</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2.052</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5893,17 @@
         <v>-6953692.914199996</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2.049</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5932,17 @@
         <v>-6920574.880099996</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2.044</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5971,17 @@
         <v>-6885087.653499996</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2.048</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6010,17 @@
         <v>-6859032.664499996</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2.052</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6049,17 @@
         <v>-6691721.143999997</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2.054</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6088,17 @@
         <v>-6748668.864899997</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2.057</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6127,17 @@
         <v>-6699047.464999997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2.048</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6166,17 @@
         <v>-6741030.438899997</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2.056</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6205,17 @@
         <v>-6718340.353099996</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2.041</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6244,17 @@
         <v>-6763599.828499996</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6283,17 @@
         <v>-6708994.412999996</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2.041</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6322,17 @@
         <v>-6673337.784199996</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2.044</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6361,17 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2.053</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6400,17 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6439,17 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6478,17 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6517,17 @@
         <v>-6564284.929399996</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6556,17 @@
         <v>-6564284.929399996</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2.047</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6595,17 @@
         <v>-6593437.935099996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>2.047</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6634,17 @@
         <v>-6552746.409499995</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6673,17 @@
         <v>-6479942.473499996</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2.044</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6712,17 @@
         <v>-6430127.529199996</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2.046</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6751,17 @@
         <v>-6451938.705399996</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2.051</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6790,17 @@
         <v>-6500769.105599996</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>2.048</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6829,17 @@
         <v>-6459544.699199996</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2.041</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6868,17 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.045</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6907,17 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6946,17 @@
         <v>-6461436.703499996</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6985,17 @@
         <v>-6503685.501199996</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>2.044</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7024,17 @@
         <v>-6567431.943499996</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7063,17 @@
         <v>-6521302.460799997</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>2.041</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7106,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7139,17 @@
         <v>-6566836.176599997</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2.045</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7182,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7215,17 @@
         <v>-6602767.133599997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2.043</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,15 +7254,17 @@
         <v>-6560223.883999998</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>2.042</v>
       </c>
-      <c r="J199" t="n">
-        <v>2.042</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,15 +7293,15 @@
         <v>-6596319.266899997</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2.042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7028,17 +7332,15 @@
         <v>-6596319.266899997</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>2.044</v>
       </c>
-      <c r="J201" t="n">
-        <v>2.042</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L201" t="n">
@@ -7069,15 +7371,17 @@
         <v>-6560381.344099998</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>2.044</v>
       </c>
-      <c r="J202" t="n">
-        <v>2.044</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7106,17 +7410,15 @@
         <v>-6560381.344099998</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>2.045</v>
       </c>
-      <c r="J203" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7150,12 +7452,10 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7186,14 +7486,12 @@
         <v>-6521151.791899998</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>2.046</v>
       </c>
-      <c r="J205" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7227,14 +7525,12 @@
         <v>-6521151.791899998</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>2.046</v>
       </c>
-      <c r="J206" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7268,14 +7564,12 @@
         <v>-6521151.791899998</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>2.046</v>
       </c>
-      <c r="J207" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7309,14 +7603,12 @@
         <v>-6565768.828799997</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>2.046</v>
       </c>
-      <c r="J208" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7350,14 +7642,12 @@
         <v>-6523908.856699998</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>2.045</v>
       </c>
-      <c r="J209" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7391,14 +7681,12 @@
         <v>-6488441.448799998</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>2.046</v>
       </c>
-      <c r="J210" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,14 +7720,12 @@
         <v>-6488441.448799998</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>2.047</v>
       </c>
-      <c r="J211" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7473,14 +7759,12 @@
         <v>-6556615.453899997</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>2.047</v>
       </c>
-      <c r="J212" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7514,14 +7798,12 @@
         <v>-6517709.286299997</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>2.045</v>
       </c>
-      <c r="J213" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7555,14 +7837,12 @@
         <v>-6517709.286299997</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>2.049</v>
       </c>
-      <c r="J214" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,14 +7876,12 @@
         <v>-6470010.293299997</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>2.049</v>
       </c>
-      <c r="J215" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7637,14 +7915,12 @@
         <v>-6516361.765699998</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>2.05</v>
       </c>
-      <c r="J216" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7678,14 +7954,12 @@
         <v>-6559636.636999997</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>2.049</v>
       </c>
-      <c r="J217" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7719,14 +7993,12 @@
         <v>-6512446.662199997</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>2.048</v>
       </c>
-      <c r="J218" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7760,14 +8032,12 @@
         <v>-6460001.994099997</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>2.05</v>
       </c>
-      <c r="J219" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7801,14 +8071,12 @@
         <v>-6416316.879199997</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>2.051</v>
       </c>
-      <c r="J220" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7842,14 +8110,12 @@
         <v>-6481974.710499996</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>2.053</v>
       </c>
-      <c r="J221" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7883,14 +8149,12 @@
         <v>-6524834.791699996</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>2.051</v>
       </c>
-      <c r="J222" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,14 +8188,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>2.049</v>
       </c>
-      <c r="J223" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7965,14 +8227,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>2.048</v>
       </c>
-      <c r="J224" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8006,14 +8266,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>2.048</v>
       </c>
-      <c r="J225" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8047,14 +8305,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>2.048</v>
       </c>
-      <c r="J226" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8088,14 +8344,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>2.048</v>
       </c>
-      <c r="J227" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8129,14 +8383,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>2.048</v>
       </c>
-      <c r="J228" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8170,14 +8422,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>2.048</v>
       </c>
-      <c r="J229" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,14 +8461,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>2.048</v>
       </c>
-      <c r="J230" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8252,14 +8500,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>2.048</v>
       </c>
-      <c r="J231" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8293,14 +8539,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>2.048</v>
       </c>
-      <c r="J232" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8334,14 +8578,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>2.048</v>
       </c>
-      <c r="J233" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8375,14 +8617,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>2.048</v>
       </c>
-      <c r="J234" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8416,14 +8656,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>2.048</v>
       </c>
-      <c r="J235" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8457,14 +8695,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>2.048</v>
       </c>
-      <c r="J236" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8498,14 +8734,12 @@
         <v>-6563750.935199996</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>2.048</v>
       </c>
-      <c r="J237" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8539,14 +8773,12 @@
         <v>-6529914.764299996</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>2.048</v>
       </c>
-      <c r="J238" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8580,14 +8812,12 @@
         <v>-6486082.618599996</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>2.057</v>
       </c>
-      <c r="J239" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8621,14 +8851,12 @@
         <v>-6537983.614199996</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>2.071</v>
       </c>
-      <c r="J240" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,14 +8890,12 @@
         <v>-6563248.701899996</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>2.068</v>
       </c>
-      <c r="J241" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8703,14 +8929,12 @@
         <v>-6595358.678299996</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>2.061</v>
       </c>
-      <c r="J242" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8744,14 +8968,12 @@
         <v>-6641404.943499996</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>2.06</v>
       </c>
-      <c r="J243" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8785,14 +9007,12 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>2.058</v>
       </c>
-      <c r="J244" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8826,14 +9046,12 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>2.06</v>
       </c>
-      <c r="J245" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,14 +9085,12 @@
         <v>-6647237.970599996</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>2.06</v>
       </c>
-      <c r="J246" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8908,14 +9124,12 @@
         <v>-6608076.478699996</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>2.05</v>
       </c>
-      <c r="J247" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8949,14 +9163,12 @@
         <v>-6629248.386399996</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>2.058</v>
       </c>
-      <c r="J248" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8990,14 +9202,12 @@
         <v>-6580912.709499996</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>2.052</v>
       </c>
-      <c r="J249" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9031,14 +9241,12 @@
         <v>-6626978.258499996</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>2.059</v>
       </c>
-      <c r="J250" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9072,14 +9280,12 @@
         <v>-6596397.359799996</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>2.051</v>
       </c>
-      <c r="J251" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9113,14 +9319,12 @@
         <v>-6522251.843399996</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>2.054</v>
       </c>
-      <c r="J252" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9154,14 +9358,12 @@
         <v>-6458765.178299996</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>2.067</v>
       </c>
-      <c r="J253" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9195,14 +9397,12 @@
         <v>-6496835.445499996</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>2.069</v>
       </c>
-      <c r="J254" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9236,14 +9436,12 @@
         <v>-6516072.960399996</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>2.067</v>
       </c>
-      <c r="J255" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9277,14 +9475,12 @@
         <v>-6555195.511999995</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>2.063</v>
       </c>
-      <c r="J256" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9318,14 +9514,12 @@
         <v>-6507794.996899995</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>2.059</v>
       </c>
-      <c r="J257" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9359,14 +9553,12 @@
         <v>-6545481.491599995</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>2.068</v>
       </c>
-      <c r="J258" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9400,14 +9592,12 @@
         <v>-6592736.969999995</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>2.063</v>
       </c>
-      <c r="J259" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9441,14 +9631,12 @@
         <v>-6553596.878299995</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>2.061</v>
       </c>
-      <c r="J260" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9482,14 +9670,12 @@
         <v>-6594886.286599996</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>2.068</v>
       </c>
-      <c r="J261" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,14 +9709,12 @@
         <v>-6633762.880899996</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>2.066</v>
       </c>
-      <c r="J262" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9564,14 +9748,12 @@
         <v>-6588269.659099995</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>2.061</v>
       </c>
-      <c r="J263" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9605,14 +9787,12 @@
         <v>-6547056.925299996</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>2.064</v>
       </c>
-      <c r="J264" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9646,14 +9826,12 @@
         <v>-6547056.925299996</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>2.065</v>
       </c>
-      <c r="J265" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9687,14 +9865,12 @@
         <v>-6501467.108399996</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>2.065</v>
       </c>
-      <c r="J266" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9728,14 +9904,12 @@
         <v>-6501467.108399996</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>2.066</v>
       </c>
-      <c r="J267" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9769,12 +9943,12 @@
         <v>-6534041.583999995</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9808,14 +9982,12 @@
         <v>-6515223.657399995</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>2.061</v>
       </c>
-      <c r="J269" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9849,14 +10021,12 @@
         <v>-6557788.686999995</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>2.065</v>
       </c>
-      <c r="J270" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9890,14 +10060,12 @@
         <v>-6557788.686999995</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>2.064</v>
       </c>
-      <c r="J271" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9931,14 +10099,12 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>2.064</v>
       </c>
-      <c r="J272" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9972,14 +10138,12 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>2.065</v>
       </c>
-      <c r="J273" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10013,14 +10177,12 @@
         <v>-6572352.132699995</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>2.065</v>
       </c>
-      <c r="J274" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10054,12 +10216,12 @@
         <v>-6540386.771999995</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10093,14 +10255,12 @@
         <v>-6526879.247699996</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>2.066</v>
       </c>
-      <c r="J276" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10134,14 +10294,12 @@
         <v>-6590436.466799996</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>2.067</v>
       </c>
-      <c r="J277" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10175,14 +10333,12 @@
         <v>-6546337.215399995</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>2.062</v>
       </c>
-      <c r="J278" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10216,14 +10372,12 @@
         <v>-6493286.308499996</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>2.063</v>
       </c>
-      <c r="J279" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10257,12 +10411,12 @@
         <v>-6450002.542199995</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10296,12 +10450,12 @@
         <v>-6363201.007999996</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10335,12 +10489,12 @@
         <v>-6319007.184899996</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>2.071</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10374,12 +10528,12 @@
         <v>-6276228.845899996</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>2.073</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10413,12 +10567,12 @@
         <v>-6314442.275499997</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>2.076</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10452,12 +10606,12 @@
         <v>-6277651.577499997</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>2.073</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10491,12 +10645,12 @@
         <v>-6219284.179399997</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>2.074</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10530,12 +10684,12 @@
         <v>-6262228.256499997</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>2.076</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10569,12 +10723,12 @@
         <v>-5816212.976099998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>2.072</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10611,9 +10765,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10650,9 +10802,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10689,9 +10839,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10728,9 +10876,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10767,9 +10913,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10806,9 +10950,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10845,9 +10987,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10881,12 +11021,12 @@
         <v>-5651319.900599998</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10920,12 +11060,12 @@
         <v>-5606203.996099998</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2.044</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10962,9 +11102,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11001,9 +11139,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11040,9 +11176,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11079,9 +11213,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11118,9 +11250,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11157,9 +11287,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11196,9 +11324,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11235,9 +11361,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11274,9 +11398,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11313,9 +11435,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11352,9 +11472,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11391,9 +11509,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11430,9 +11546,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11469,9 +11583,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11508,9 +11620,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11547,9 +11657,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11586,9 +11694,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11625,9 +11731,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11664,9 +11768,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11703,9 +11805,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11742,9 +11842,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11781,9 +11879,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11820,9 +11916,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11859,9 +11953,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11898,9 +11990,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11937,9 +12027,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11976,9 +12064,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12015,9 +12101,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12054,9 +12138,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12093,9 +12175,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12132,9 +12212,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12171,9 +12249,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12210,9 +12286,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12249,9 +12323,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12288,9 +12360,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12327,9 +12397,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12366,9 +12434,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12405,9 +12471,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12444,9 +12508,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12483,9 +12545,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12522,9 +12582,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12561,9 +12619,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12600,9 +12656,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12639,9 +12693,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12678,9 +12730,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12717,9 +12767,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12756,9 +12804,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12795,9 +12841,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,9 +12878,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12873,9 +12915,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12912,9 +12952,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12951,9 +12989,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12990,9 +13026,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13029,9 +13063,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13068,9 +13100,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13107,9 +13137,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13146,9 +13174,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13185,9 +13211,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13224,9 +13248,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13263,9 +13285,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13302,9 +13322,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13341,9 +13359,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13380,9 +13396,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13419,9 +13433,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13458,9 +13470,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13497,9 +13507,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13536,9 +13544,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13575,9 +13581,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13614,9 +13618,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13653,9 +13655,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13692,9 +13692,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13731,9 +13729,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13770,9 +13766,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13809,9 +13803,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13848,9 +13840,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13887,9 +13877,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13926,9 +13914,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13965,9 +13951,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14004,9 +13988,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14043,9 +14025,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14082,9 +14062,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14121,9 +14099,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14160,9 +14136,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14199,9 +14173,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14238,9 +14210,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14277,9 +14247,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14316,9 +14284,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14355,9 +14321,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14394,9 +14358,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14433,9 +14395,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14472,9 +14432,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14511,9 +14469,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14550,9 +14506,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14589,9 +14543,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14628,9 +14580,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14667,9 +14617,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14706,9 +14654,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14745,9 +14691,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14784,9 +14728,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14823,9 +14765,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14862,9 +14802,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14901,9 +14839,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14940,9 +14876,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14979,9 +14913,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15018,9 +14950,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15057,9 +14987,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15096,9 +15024,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15135,9 +15061,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15174,9 +15098,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15213,9 +15135,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15252,9 +15172,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15291,9 +15209,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15330,9 +15246,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15369,9 +15283,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15408,9 +15320,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15447,9 +15357,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15486,9 +15394,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15522,19 +15428,17 @@
         <v>-5237376.800300001</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>2.044</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L415" t="n">
-        <v>1.021908023483366</v>
+        <v>1</v>
       </c>
       <c r="M415" t="inlineStr"/>
     </row>
@@ -15565,7 +15469,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15598,7 +15506,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15627,11 +15539,15 @@
         <v>-5239225.906900001</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15660,11 +15576,15 @@
         <v>-5280018.521800001</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15693,11 +15613,15 @@
         <v>-5237282.488800001</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15726,11 +15650,15 @@
         <v>-5237282.488800001</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15759,11 +15687,15 @@
         <v>-5279233.711700002</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15792,11 +15724,15 @@
         <v>-5227209.375500002</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15825,11 +15761,15 @@
         <v>-5274697.727600002</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15858,11 +15798,15 @@
         <v>-5236748.553000002</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15891,11 +15835,15 @@
         <v>-5282076.299900002</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15924,11 +15872,15 @@
         <v>-5282076.299900002</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15957,11 +15909,15 @@
         <v>-5325225.264900002</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15990,11 +15946,15 @@
         <v>-5281571.905400001</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16023,11 +15983,15 @@
         <v>-5324114.844600001</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16060,7 +16024,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16089,11 +16057,15 @@
         <v>-5345556.080800002</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16122,11 +16094,15 @@
         <v>-5306245.250200002</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16155,11 +16131,15 @@
         <v>-5257523.015000002</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16188,11 +16168,15 @@
         <v>-5295121.934200002</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16221,11 +16205,15 @@
         <v>-5277327.426900002</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16254,11 +16242,15 @@
         <v>-5242225.477400002</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16287,11 +16279,15 @@
         <v>-5284078.878800002</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16320,11 +16316,15 @@
         <v>-3830791.503400002</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16353,11 +16353,15 @@
         <v>-3830791.503400002</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16386,11 +16390,15 @@
         <v>-3853274.411600002</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16419,11 +16427,15 @@
         <v>-3814413.548700002</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16452,11 +16464,15 @@
         <v>-3853660.462900002</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16485,11 +16501,15 @@
         <v>-3808930.532600001</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16518,11 +16538,15 @@
         <v>-3808930.532600001</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16551,11 +16575,15 @@
         <v>-3808930.532600001</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16588,7 +16616,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16621,7 +16653,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16650,11 +16686,15 @@
         <v>-3649309.703700002</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16683,11 +16723,15 @@
         <v>-3610538.249400002</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16716,11 +16760,15 @@
         <v>-3677730.445400002</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16749,11 +16797,15 @@
         <v>-3628839.608800002</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16782,11 +16834,15 @@
         <v>-3649185.127400002</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16815,11 +16871,15 @@
         <v>-3686097.351300002</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16848,11 +16908,15 @@
         <v>-3615919.925400002</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16881,11 +16945,15 @@
         <v>-3660572.939600002</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16914,11 +16982,15 @@
         <v>-3615285.302300002</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16947,11 +17019,15 @@
         <v>-3558961.181300002</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16980,11 +17056,15 @@
         <v>-3578191.725400002</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17013,11 +17093,15 @@
         <v>-3533009.111000002</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17046,11 +17130,15 @@
         <v>-3574461.372100002</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17079,11 +17167,15 @@
         <v>-3527971.756700002</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17112,11 +17204,15 @@
         <v>-3569885.745500002</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17145,11 +17241,15 @@
         <v>-3608860.238200002</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17178,11 +17278,15 @@
         <v>-3656273.413000002</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17211,11 +17315,15 @@
         <v>-3701721.236200002</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17244,11 +17352,15 @@
         <v>-3666726.750600002</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17277,11 +17389,15 @@
         <v>-3635300.757400002</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17310,11 +17426,15 @@
         <v>-3680300.514700003</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17343,11 +17463,15 @@
         <v>-3635708.178400002</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17376,11 +17500,15 @@
         <v>-3694467.678100002</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17409,11 +17537,15 @@
         <v>-3744306.505800002</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17442,11 +17574,15 @@
         <v>-3785230.424600002</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17475,11 +17611,15 @@
         <v>-3831443.613500002</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17508,11 +17648,15 @@
         <v>-3742282.283600003</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17541,11 +17685,15 @@
         <v>-3784838.977800002</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17578,7 +17726,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17607,11 +17759,15 @@
         <v>-3792174.181700002</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17640,11 +17796,15 @@
         <v>-3768705.563300002</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17673,11 +17833,15 @@
         <v>-3835798.271000003</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17706,11 +17870,15 @@
         <v>-3799120.834600003</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17743,7 +17911,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17776,7 +17948,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17809,7 +17985,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17842,7 +18022,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17875,7 +18059,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17908,7 +18096,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17941,7 +18133,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17974,7 +18170,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18007,7 +18207,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18040,13 +18244,17 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
       <c r="M491" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest DAC.xlsx
+++ b/BackTest/2020-01-11 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1295533.7074</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1673003.2096</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1672753.2096</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1672503.2096</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1666253.2096</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1761133.8759</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1761133.8759</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1761133.8759</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2859081.5818</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2859081.5818</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2853081.5818</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2877843.5818</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2877607.5818</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2878854.6338</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2872854.6338</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-7028632.477600001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6899758.477600001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -5269,17 +5269,11 @@
         <v>-6296902.393499997</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2.071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5308,17 +5302,11 @@
         <v>-6260459.348799996</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5347,17 +5335,11 @@
         <v>-6307579.298399996</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5386,17 +5368,11 @@
         <v>-7441829.606199997</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5425,17 +5401,11 @@
         <v>-7611515.633499997</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5464,17 +5434,11 @@
         <v>-7534360.260499997</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5503,17 +5467,11 @@
         <v>-7146896.358699997</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2.048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5542,17 +5500,11 @@
         <v>-7004673.806399997</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5581,17 +5533,11 @@
         <v>-6754141.941399997</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5620,17 +5566,11 @@
         <v>-6795338.589399997</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5659,17 +5599,11 @@
         <v>-6848128.020499997</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>2.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5698,17 +5632,11 @@
         <v>-6805792.376899997</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>2.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5737,17 +5665,11 @@
         <v>-6844570.854499997</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5776,17 +5698,11 @@
         <v>-6785554.054299996</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5815,17 +5731,11 @@
         <v>-6810022.726099996</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5854,17 +5764,11 @@
         <v>-6880138.288499996</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5893,17 +5797,11 @@
         <v>-6953692.914199996</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5932,17 +5830,11 @@
         <v>-6920574.880099996</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5971,17 +5863,11 @@
         <v>-6885087.653499996</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2.048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6010,17 +5896,11 @@
         <v>-6859032.664499996</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>2.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6049,17 +5929,11 @@
         <v>-6691721.143999997</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>2.054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6088,17 +5962,11 @@
         <v>-6748668.864899997</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>2.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6127,17 +5995,11 @@
         <v>-6699047.464999997</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>2.048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6166,17 +6028,11 @@
         <v>-6741030.438899997</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>2.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6205,17 +6061,11 @@
         <v>-6718340.353099996</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>2.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6244,17 +6094,11 @@
         <v>-6763599.828499996</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6283,17 +6127,11 @@
         <v>-6708994.412999996</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>2.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6322,17 +6160,11 @@
         <v>-6673337.784199996</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>2.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6361,17 +6193,11 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>2.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6400,17 +6226,11 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6439,17 +6259,11 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6478,17 +6292,11 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6517,17 +6325,11 @@
         <v>-6564284.929399996</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6556,17 +6358,11 @@
         <v>-6564284.929399996</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>2.047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6595,17 +6391,11 @@
         <v>-6593437.935099996</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>2.047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6634,17 +6424,11 @@
         <v>-6552746.409499995</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6681,7 +6465,7 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -6712,11 +6496,9 @@
         <v>-6430127.529199996</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>2.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6751,11 +6533,9 @@
         <v>-6451938.705399996</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>2.051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6790,11 +6570,9 @@
         <v>-6500769.105599996</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>2.048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6829,11 +6607,9 @@
         <v>-6459544.699199996</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>2.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6868,11 +6644,9 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>2.045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6907,11 +6681,9 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7102,9 +6874,11 @@
         <v>-6521302.460799997</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2.045</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7178,9 +6952,11 @@
         <v>-6566836.176599997</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2.043</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7449,9 +7225,11 @@
         <v>-6521151.791899998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2.045</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -8890,11 +8668,9 @@
         <v>-6563248.701899996</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8968,11 +8744,9 @@
         <v>-6641404.943499996</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9007,11 +8781,9 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>2.058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9046,11 +8818,9 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9358,11 +9128,9 @@
         <v>-6458765.178299996</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9397,11 +9165,9 @@
         <v>-6496835.445499996</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>2.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9436,11 +9202,9 @@
         <v>-6516072.960399996</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9475,11 +9239,9 @@
         <v>-6555195.511999995</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9514,11 +9276,9 @@
         <v>-6507794.996899995</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>2.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9553,11 +9313,9 @@
         <v>-6545481.491599995</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9592,11 +9350,9 @@
         <v>-6592736.969999995</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9631,11 +9387,9 @@
         <v>-6553596.878299995</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9670,11 +9424,9 @@
         <v>-6594886.286599996</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9709,11 +9461,9 @@
         <v>-6633762.880899996</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>2.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9748,11 +9498,9 @@
         <v>-6588269.659099995</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9787,11 +9535,9 @@
         <v>-6547056.925299996</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9826,11 +9572,9 @@
         <v>-6547056.925299996</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9865,11 +9609,9 @@
         <v>-6501467.108399996</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9904,11 +9646,9 @@
         <v>-6501467.108399996</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>2.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9943,11 +9683,9 @@
         <v>-6534041.583999995</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>2.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9982,11 +9720,9 @@
         <v>-6515223.657399995</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10021,11 +9757,9 @@
         <v>-6557788.686999995</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10060,11 +9794,9 @@
         <v>-6557788.686999995</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10099,11 +9831,9 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10138,11 +9868,9 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10177,11 +9905,9 @@
         <v>-6572352.132699995</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10216,11 +9942,9 @@
         <v>-6540386.771999995</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10255,11 +9979,9 @@
         <v>-6526879.247699996</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>2.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10294,11 +10016,9 @@
         <v>-6590436.466799996</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10333,11 +10053,9 @@
         <v>-6546337.215399995</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10372,11 +10090,9 @@
         <v>-6493286.308499996</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10411,11 +10127,9 @@
         <v>-6450002.542199995</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10450,11 +10164,9 @@
         <v>-6363201.007999996</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10489,11 +10201,9 @@
         <v>-6319007.184899996</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>2.071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10528,11 +10238,9 @@
         <v>-6276228.845899996</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>2.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10567,11 +10275,9 @@
         <v>-6314442.275499997</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>2.076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10606,11 +10312,9 @@
         <v>-6277651.577499997</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>2.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10645,11 +10349,9 @@
         <v>-6219284.179399997</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>2.074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10684,11 +10386,9 @@
         <v>-6262228.256499997</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>2.076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10723,11 +10423,9 @@
         <v>-5816212.976099998</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>2.072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11021,11 +10719,9 @@
         <v>-5651319.900599998</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>2.081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11060,11 +10756,9 @@
         <v>-5606203.996099998</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>2.082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -18255,6 +17949,6 @@
       <c r="M491" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest DAC.xlsx
+++ b/BackTest/2020-01-11 BackTest DAC.xlsx
@@ -517,7 +517,7 @@
         <v>-1445753.0685</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1767133.8759</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1990627.402</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2661107.9806</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2859331.5818</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2859081.5818</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2859081.5818</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2853081.5818</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2881854.6338</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2881854.6338</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2881618.6338</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-7028632.477600001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6899758.477600001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -6325,10 +6325,14 @@
         <v>-6564284.929399996</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6361,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,15 +6479,15 @@
         <v>-6479942.473499996</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>2.044</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -6499,7 +6521,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6536,7 +6560,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6573,7 +6599,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6607,10 +6635,14 @@
         <v>-6459544.699199996</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2.041</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6644,10 +6676,14 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6681,10 +6717,14 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6723,7 +6763,9 @@
       <c r="I191" t="n">
         <v>2.042</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6757,12 +6799,12 @@
         <v>-6503685.501199996</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>2.044</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6796,12 +6838,12 @@
         <v>-6567431.943499996</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>2.042</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6835,12 +6877,12 @@
         <v>-6521302.460799997</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>2.041</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,12 +6916,12 @@
         <v>-6521302.460799997</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6913,12 +6955,12 @@
         <v>-6566836.176599997</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,12 +6994,12 @@
         <v>-6566836.176599997</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2.043</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6991,12 +7033,12 @@
         <v>-6602767.133599997</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2.043</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7035,7 +7077,9 @@
       <c r="I199" t="n">
         <v>2.042</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7074,7 +7118,9 @@
       <c r="I200" t="n">
         <v>2.045</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7113,7 +7159,9 @@
       <c r="I201" t="n">
         <v>2.044</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7152,7 +7200,9 @@
       <c r="I202" t="n">
         <v>2.044</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7191,7 +7241,9 @@
       <c r="I203" t="n">
         <v>2.045</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7230,7 +7282,9 @@
       <c r="I204" t="n">
         <v>2.045</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7269,7 +7323,9 @@
       <c r="I205" t="n">
         <v>2.046</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7308,7 +7364,9 @@
       <c r="I206" t="n">
         <v>2.046</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7347,7 +7405,9 @@
       <c r="I207" t="n">
         <v>2.046</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7386,7 +7446,9 @@
       <c r="I208" t="n">
         <v>2.046</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7425,7 +7487,9 @@
       <c r="I209" t="n">
         <v>2.045</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7464,7 +7528,9 @@
       <c r="I210" t="n">
         <v>2.046</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7503,7 +7569,9 @@
       <c r="I211" t="n">
         <v>2.047</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7542,7 +7610,9 @@
       <c r="I212" t="n">
         <v>2.047</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7581,7 +7651,9 @@
       <c r="I213" t="n">
         <v>2.045</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7620,7 +7692,9 @@
       <c r="I214" t="n">
         <v>2.049</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7659,7 +7733,9 @@
       <c r="I215" t="n">
         <v>2.049</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7698,7 +7774,9 @@
       <c r="I216" t="n">
         <v>2.05</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7737,7 +7815,9 @@
       <c r="I217" t="n">
         <v>2.049</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7776,7 +7856,9 @@
       <c r="I218" t="n">
         <v>2.048</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7815,7 +7897,9 @@
       <c r="I219" t="n">
         <v>2.05</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7854,7 +7938,9 @@
       <c r="I220" t="n">
         <v>2.051</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7893,7 +7979,9 @@
       <c r="I221" t="n">
         <v>2.053</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7932,7 +8020,9 @@
       <c r="I222" t="n">
         <v>2.051</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,7 +8061,9 @@
       <c r="I223" t="n">
         <v>2.049</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8010,7 +8102,9 @@
       <c r="I224" t="n">
         <v>2.048</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8049,7 +8143,9 @@
       <c r="I225" t="n">
         <v>2.048</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8088,7 +8184,9 @@
       <c r="I226" t="n">
         <v>2.048</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8127,7 +8225,9 @@
       <c r="I227" t="n">
         <v>2.048</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,7 +8266,9 @@
       <c r="I228" t="n">
         <v>2.048</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8205,7 +8307,9 @@
       <c r="I229" t="n">
         <v>2.048</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8244,7 +8348,9 @@
       <c r="I230" t="n">
         <v>2.048</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8283,7 +8389,9 @@
       <c r="I231" t="n">
         <v>2.048</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8322,7 +8430,9 @@
       <c r="I232" t="n">
         <v>2.048</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8361,7 +8471,9 @@
       <c r="I233" t="n">
         <v>2.048</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8400,7 +8512,9 @@
       <c r="I234" t="n">
         <v>2.048</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8439,7 +8553,9 @@
       <c r="I235" t="n">
         <v>2.048</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8478,7 +8594,9 @@
       <c r="I236" t="n">
         <v>2.048</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8517,7 +8635,9 @@
       <c r="I237" t="n">
         <v>2.048</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8556,7 +8676,9 @@
       <c r="I238" t="n">
         <v>2.048</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8595,7 +8717,9 @@
       <c r="I239" t="n">
         <v>2.057</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,7 +8758,9 @@
       <c r="I240" t="n">
         <v>2.071</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8668,10 +8794,14 @@
         <v>-6563248.701899996</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="J241" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8710,7 +8840,9 @@
       <c r="I242" t="n">
         <v>2.061</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8744,10 +8876,14 @@
         <v>-6641404.943499996</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J243" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8781,10 +8917,14 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>2.058</v>
+      </c>
+      <c r="J244" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8818,10 +8958,14 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J245" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,7 +9004,9 @@
       <c r="I246" t="n">
         <v>2.06</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,7 +9045,9 @@
       <c r="I247" t="n">
         <v>2.05</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,7 +9086,9 @@
       <c r="I248" t="n">
         <v>2.058</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8977,7 +9127,9 @@
       <c r="I249" t="n">
         <v>2.052</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,7 +9168,9 @@
       <c r="I250" t="n">
         <v>2.059</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,7 +9209,9 @@
       <c r="I251" t="n">
         <v>2.051</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9094,7 +9250,9 @@
       <c r="I252" t="n">
         <v>2.054</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9128,10 +9286,14 @@
         <v>-6458765.178299996</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="J253" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9165,10 +9327,14 @@
         <v>-6496835.445499996</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>2.069</v>
+      </c>
+      <c r="J254" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9202,10 +9368,14 @@
         <v>-6516072.960399996</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9239,10 +9409,14 @@
         <v>-6555195.511999995</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="J256" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9276,10 +9450,14 @@
         <v>-6507794.996899995</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="J257" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9313,10 +9491,14 @@
         <v>-6545481.491599995</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="J258" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9350,10 +9532,14 @@
         <v>-6592736.969999995</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="J259" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9387,10 +9573,14 @@
         <v>-6553596.878299995</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="J260" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9424,10 +9614,14 @@
         <v>-6594886.286599996</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="J261" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9461,10 +9655,14 @@
         <v>-6633762.880899996</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="J262" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9498,10 +9696,14 @@
         <v>-6588269.659099995</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="J263" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9535,10 +9737,14 @@
         <v>-6547056.925299996</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="J264" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9572,10 +9778,14 @@
         <v>-6547056.925299996</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="J265" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9609,10 +9819,14 @@
         <v>-6501467.108399996</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="J266" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9646,10 +9860,14 @@
         <v>-6501467.108399996</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9683,10 +9901,14 @@
         <v>-6534041.583999995</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="J268" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9720,10 +9942,14 @@
         <v>-6515223.657399995</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="J269" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9757,10 +9983,14 @@
         <v>-6557788.686999995</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="J270" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9794,10 +10024,14 @@
         <v>-6557788.686999995</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="J271" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9831,10 +10065,14 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="J272" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9868,10 +10106,14 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="J273" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9905,10 +10147,14 @@
         <v>-6572352.132699995</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="J274" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9942,10 +10188,14 @@
         <v>-6540386.771999995</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="J275" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9979,10 +10229,14 @@
         <v>-6526879.247699996</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="J276" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10016,10 +10270,14 @@
         <v>-6590436.466799996</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="J277" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10053,10 +10311,14 @@
         <v>-6546337.215399995</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10090,10 +10352,14 @@
         <v>-6493286.308499996</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="J279" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10127,10 +10393,14 @@
         <v>-6450002.542199995</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="J280" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10167,7 +10437,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10204,7 +10476,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10241,7 +10515,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10278,7 +10554,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10315,7 +10593,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10352,7 +10632,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10389,7 +10671,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10426,7 +10710,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10463,7 +10749,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10500,7 +10788,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10537,7 +10827,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10574,7 +10866,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10611,7 +10905,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,7 +10944,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10685,7 +10983,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10722,7 +11022,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10759,7 +11061,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10796,7 +11100,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10833,7 +11139,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10870,7 +11178,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10907,7 +11217,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10944,7 +11256,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10981,7 +11295,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11018,7 +11334,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11055,7 +11373,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11092,7 +11412,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11129,7 +11451,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11166,7 +11490,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11203,7 +11529,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11240,7 +11568,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11277,7 +11607,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11314,7 +11646,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11351,7 +11685,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11388,7 +11724,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11425,7 +11763,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11462,7 +11802,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11499,7 +11841,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11536,7 +11880,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11573,7 +11919,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11610,7 +11958,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11647,7 +11997,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11684,7 +12036,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11721,7 +12075,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11758,7 +12114,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,7 +12153,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,7 +12192,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11869,7 +12231,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11906,7 +12270,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11943,7 +12309,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11980,7 +12348,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12017,7 +12387,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12054,7 +12426,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12091,7 +12465,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12128,7 +12504,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12165,7 +12543,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12202,7 +12582,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12239,7 +12621,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12276,7 +12660,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12313,7 +12699,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12350,7 +12738,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12387,7 +12777,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12424,7 +12816,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12461,7 +12855,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12498,7 +12894,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12535,7 +12933,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12572,7 +12972,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12609,7 +13011,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12646,7 +13050,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,7 +13089,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12720,7 +13128,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12757,7 +13167,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12794,7 +13206,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12831,7 +13245,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12868,7 +13284,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12905,7 +13323,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12942,7 +13362,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12979,7 +13401,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13016,7 +13440,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13053,7 +13479,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13090,7 +13518,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13127,7 +13557,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13164,7 +13596,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,7 +13635,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13238,7 +13674,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13275,7 +13713,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13312,7 +13752,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13349,7 +13791,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13386,7 +13830,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13423,7 +13869,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13460,7 +13908,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13497,7 +13947,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13534,7 +13986,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13571,7 +14025,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13608,7 +14064,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13645,7 +14103,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13682,7 +14142,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13719,7 +14181,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13756,7 +14220,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13793,7 +14259,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13830,7 +14298,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13867,7 +14337,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13904,7 +14376,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13941,7 +14415,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13978,7 +14454,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14015,7 +14493,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14052,7 +14532,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14089,7 +14571,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14126,7 +14610,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14163,7 +14649,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14200,7 +14688,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14237,7 +14727,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14274,7 +14766,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14311,7 +14805,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14348,7 +14844,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14385,7 +14883,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14422,7 +14922,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14459,7 +14961,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14496,7 +15000,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14533,7 +15039,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14570,7 +15078,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14607,7 +15117,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14644,7 +15156,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14681,7 +15195,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14718,7 +15234,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14755,7 +15273,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14792,7 +15312,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14829,7 +15351,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14866,7 +15390,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14903,7 +15429,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14940,7 +15468,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14977,7 +15507,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15014,7 +15546,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15051,7 +15585,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15088,7 +15624,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15125,7 +15663,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15162,7 +15702,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15199,7 +15741,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15233,17 +15777,19 @@
         <v>-5239225.906900001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2.042</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L418" t="n">
-        <v>1</v>
+        <v>1.022913809990206</v>
       </c>
       <c r="M418" t="inlineStr"/>
     </row>
@@ -15274,11 +15820,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15307,15 +15849,11 @@
         <v>-5237282.488800001</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15344,15 +15882,11 @@
         <v>-5237282.488800001</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15381,15 +15915,11 @@
         <v>-5279233.711700002</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15418,15 +15948,11 @@
         <v>-5227209.375500002</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15455,15 +15981,11 @@
         <v>-5274697.727600002</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15492,15 +16014,11 @@
         <v>-5236748.553000002</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15533,11 +16051,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15570,11 +16084,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15607,11 +16117,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15644,11 +16150,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15677,15 +16179,11 @@
         <v>-5324114.844600001</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15714,15 +16212,11 @@
         <v>-5301023.293200001</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15751,15 +16245,11 @@
         <v>-5345556.080800002</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15788,15 +16278,11 @@
         <v>-5306245.250200002</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15825,15 +16311,11 @@
         <v>-5257523.015000002</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15862,15 +16344,11 @@
         <v>-5295121.934200002</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15899,15 +16377,11 @@
         <v>-5277327.426900002</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15936,15 +16410,11 @@
         <v>-5242225.477400002</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15973,15 +16443,11 @@
         <v>-5284078.878800002</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16010,15 +16476,11 @@
         <v>-3830791.503400002</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16047,15 +16509,11 @@
         <v>-3830791.503400002</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16084,15 +16542,11 @@
         <v>-3853274.411600002</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16121,15 +16575,11 @@
         <v>-3814413.548700002</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16162,11 +16612,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16195,15 +16641,11 @@
         <v>-3808930.532600001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16236,11 +16678,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16269,15 +16707,11 @@
         <v>-3808930.532600001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16310,11 +16744,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16343,15 +16773,11 @@
         <v>-3661762.666700002</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16380,15 +16806,11 @@
         <v>-3649309.703700002</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16417,15 +16839,11 @@
         <v>-3610538.249400002</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16454,15 +16872,11 @@
         <v>-3677730.445400002</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16491,15 +16905,11 @@
         <v>-3628839.608800002</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16528,15 +16938,11 @@
         <v>-3649185.127400002</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16565,15 +16971,11 @@
         <v>-3686097.351300002</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16606,11 +17008,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16643,11 +17041,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16680,11 +17074,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16717,11 +17107,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16754,11 +17140,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16791,11 +17173,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16828,11 +17206,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16865,11 +17239,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16902,11 +17272,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16939,11 +17305,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16976,11 +17338,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17013,11 +17371,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17404,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17087,11 +17437,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17124,11 +17470,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17161,11 +17503,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17198,11 +17536,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17235,11 +17569,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17272,11 +17602,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17309,11 +17635,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17346,11 +17668,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17383,11 +17701,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17420,11 +17734,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17457,11 +17767,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17494,11 +17800,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17531,11 +17833,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17568,11 +17866,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17605,11 +17899,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17642,11 +17932,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17679,11 +17965,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17716,11 +17998,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17753,11 +18031,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17790,11 +18064,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17827,11 +18097,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17864,11 +18130,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17901,11 +18163,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17938,11 +18196,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
